--- a/files/FDPR shifts - sandbox.xlsx
+++ b/files/FDPR shifts - sandbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nasa-my.sharepoint.com/personal/ebray_ndc_nasa_gov/Documents/Python Programs/SORC Poses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebray\Downloads\ADMTools-main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{B4A31D49-F7BF-4CCC-89D0-D832374C9A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B914792-B50D-4406-A5B8-DE4C24EF60EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3015F-C424-40DB-82EF-31BBBDA792EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="2616" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -310,19 +310,19 @@
     <t>PR results file</t>
   </si>
   <si>
-    <t>PR1-830-20230407_145020.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR3-830-20230407_151109.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR4-830-20230407_152714.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR5-830-20230407_154217.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR2-830-20230407_155836.A1.sol.h5</t>
+    <t>PR1-830-20230512_161121.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR3-830-20230512_162636.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR4-830-20230512_164016.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR5-830-20230512_165522.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR2-830-20230512_170939.A1.sol.h5</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -406,6 +406,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1672,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,67 +1750,67 @@
       <c r="S1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45023.618287037039</v>
+        <v>45058.67454861111</v>
       </c>
       <c r="B2" s="2">
-        <v>45023.784953703696</v>
+        <v>45058.841215277767</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="4">
-        <v>25</v>
+        <v>-61</v>
       </c>
       <c r="E2" s="4">
-        <v>27</v>
+        <v>-62</v>
       </c>
       <c r="F2" s="4">
-        <v>244</v>
+        <v>228.9</v>
       </c>
       <c r="G2" s="4">
-        <v>308.3</v>
+        <v>321.3</v>
       </c>
       <c r="H2" s="4">
-        <v>-11.7</v>
+        <v>1.3</v>
       </c>
       <c r="I2" s="4">
-        <v>12</v>
+        <v>27.1</v>
       </c>
       <c r="J2">
-        <v>-117</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="L2" s="6">
-        <v>-3.0099999999999998E-2</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="M2" s="6">
-        <v>-4.9603999999999999</v>
+        <v>-4.9981</v>
       </c>
       <c r="N2" s="6">
-        <v>0.79039999999999999</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="O2" s="6">
-        <v>-0.34549999999999997</v>
+        <v>0.6421</v>
       </c>
       <c r="P2" s="6">
-        <v>1.5705</v>
+        <v>0.2848</v>
       </c>
       <c r="Q2" s="6">
-        <v>1.5709</v>
+        <v>0.2853</v>
       </c>
       <c r="R2" s="6">
-        <v>3.73E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="S2" s="6">
-        <v>3.5400000000000001E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="T2" t="s">
         <v>91</v>
@@ -1815,61 +1818,61 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45023.632743055547</v>
+        <v>45058.68513888889</v>
       </c>
       <c r="B3" s="2">
-        <v>45023.799409722233</v>
+        <v>45058.851805555547</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>-1</v>
+        <v>-32</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="F3" s="4">
-        <v>238.9</v>
+        <v>214.2</v>
       </c>
       <c r="G3" s="4">
-        <v>307</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="H3" s="4">
-        <v>-13</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="I3" s="4">
-        <v>17.100000000000001</v>
+        <v>41.8</v>
       </c>
       <c r="J3">
-        <v>-130</v>
+        <v>-11</v>
       </c>
       <c r="K3">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="L3" s="6">
-        <v>-3.2000000000000001E-2</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
       <c r="M3" s="6">
-        <v>-4.9623999999999997</v>
+        <v>-4.9980000000000002</v>
       </c>
       <c r="N3" s="6">
-        <v>111.0682</v>
+        <v>111.17019999999999</v>
       </c>
       <c r="O3" s="6">
-        <v>22.117799999999999</v>
+        <v>23.1252</v>
       </c>
       <c r="P3" s="6">
-        <v>-45.008200000000002</v>
+        <v>-46.240900000000003</v>
       </c>
       <c r="Q3" s="6">
-        <v>-45.008299999999998</v>
+        <v>-46.240699999999997</v>
       </c>
       <c r="R3" s="6">
-        <v>-4.8592000000000004</v>
+        <v>-4.8860000000000001</v>
       </c>
       <c r="S3" s="6">
-        <v>-10.5975</v>
+        <v>-10.5802</v>
       </c>
       <c r="T3" t="s">
         <v>92</v>
@@ -1877,61 +1880,61 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45023.643912037027</v>
+        <v>45058.69462962963</v>
       </c>
       <c r="B4" s="2">
-        <v>45023.810578703713</v>
+        <v>45058.861296296287</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
-        <v>234.1</v>
+        <v>208.8</v>
       </c>
       <c r="G4" s="4">
-        <v>310.10000000000002</v>
+        <v>322</v>
       </c>
       <c r="H4" s="4">
-        <v>-9.9</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4">
-        <v>21.9</v>
+        <v>47.2</v>
       </c>
       <c r="J4">
-        <v>-99</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>219</v>
+        <v>472</v>
       </c>
       <c r="L4" s="6">
-        <v>-3.1699999999999999E-2</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="M4" s="6">
-        <v>-4.9637000000000002</v>
+        <v>-5.0027999999999997</v>
       </c>
       <c r="N4" s="6">
-        <v>102.82429999999999</v>
+        <v>102.96</v>
       </c>
       <c r="O4" s="6">
-        <v>30.841799999999999</v>
+        <v>31.784700000000001</v>
       </c>
       <c r="P4" s="6">
-        <v>60.076900000000002</v>
+        <v>58.843400000000003</v>
       </c>
       <c r="Q4" s="6">
-        <v>60.077199999999998</v>
+        <v>58.843899999999998</v>
       </c>
       <c r="R4" s="6">
-        <v>5.3079999999999998</v>
+        <v>5.2803000000000004</v>
       </c>
       <c r="S4" s="6">
-        <v>-10.3161</v>
+        <v>-10.3049</v>
       </c>
       <c r="T4" t="s">
         <v>93</v>
@@ -1939,61 +1942,61 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45023.654363425929</v>
+        <v>45058.70511574074</v>
       </c>
       <c r="B5" s="2">
-        <v>45023.821030092593</v>
+        <v>45058.871782407397</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>-4</v>
+        <v>-174</v>
       </c>
       <c r="E5" s="4">
-        <v>-3</v>
+        <v>-203</v>
       </c>
       <c r="F5" s="4">
-        <v>240.9</v>
+        <v>238.1</v>
       </c>
       <c r="G5" s="4">
-        <v>303.89999999999998</v>
+        <v>320.89999999999998</v>
       </c>
       <c r="H5" s="4">
-        <v>-16.100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="I5" s="4">
-        <v>15.1</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J5">
-        <v>-161</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="L5" s="6">
-        <v>-2.75E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M5" s="6">
-        <v>-4.9665999999999997</v>
+        <v>-4.9995000000000003</v>
       </c>
       <c r="N5" s="6">
-        <v>-101.5449</v>
+        <v>-101.4177</v>
       </c>
       <c r="O5" s="6">
-        <v>30.8795</v>
+        <v>31.8065</v>
       </c>
       <c r="P5" s="6">
-        <v>59.672899999999998</v>
+        <v>58.424900000000001</v>
       </c>
       <c r="Q5" s="6">
-        <v>59.673099999999998</v>
+        <v>58.426499999999997</v>
       </c>
       <c r="R5" s="6">
-        <v>5.2817999999999996</v>
+        <v>5.2705000000000002</v>
       </c>
       <c r="S5" s="6">
-        <v>10.405099999999999</v>
+        <v>10.416499999999999</v>
       </c>
       <c r="T5" t="s">
         <v>94</v>
@@ -2001,61 +2004,61 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45023.665694444448</v>
+        <v>45058.71503472222</v>
       </c>
       <c r="B6" s="2">
-        <v>45023.832361111112</v>
+        <v>45058.881701388891</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="4">
-        <v>62</v>
+        <v>-103</v>
       </c>
       <c r="E6" s="4">
-        <v>64</v>
+        <v>-106</v>
       </c>
       <c r="F6" s="4">
-        <v>229.1</v>
+        <v>226</v>
       </c>
       <c r="G6" s="4">
-        <v>301.89999999999998</v>
+        <v>322.5</v>
       </c>
       <c r="H6" s="4">
-        <v>-18.100000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="4">
-        <v>26.9</v>
+        <v>30</v>
       </c>
       <c r="J6">
-        <v>-181</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="L6" s="6">
-        <v>-2.63E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="M6" s="6">
-        <v>-4.9641999999999999</v>
+        <v>-5.0018000000000002</v>
       </c>
       <c r="N6" s="6">
-        <v>-109.60380000000001</v>
+        <v>-109.49930000000001</v>
       </c>
       <c r="O6" s="6">
-        <v>22.347300000000001</v>
+        <v>23.340900000000001</v>
       </c>
       <c r="P6" s="6">
-        <v>-45.547199999999997</v>
+        <v>-46.7926</v>
       </c>
       <c r="Q6" s="6">
-        <v>-45.546599999999998</v>
+        <v>-46.793399999999998</v>
       </c>
       <c r="R6" s="6">
-        <v>-4.9017999999999997</v>
+        <v>-4.9126000000000003</v>
       </c>
       <c r="S6" s="6">
-        <v>10.6828</v>
+        <v>10.700799999999999</v>
       </c>
       <c r="T6" t="s">
         <v>95</v>
@@ -2076,10 +2079,6 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2088,15 +2087,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E55C8BFFB715694EA624865142195CE5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="407c95df1fbdf2f4ce03093847920e1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eee777-8602-42d0-a9c8-03c6289e8509" xmlns:ns3="d1b7d55b-5279-4414-bf60-dbde09f11675" xmlns:ns4="d900e117-17a0-4b24-9e47-511ef1d02c43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12bff7c2ede26fb51b9021c609cdaecb" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="01eee777-8602-42d0-a9c8-03c6289e8509"/>
@@ -2312,15 +2302,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFB6650-4FEB-4B66-AAA0-20B6289510B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2A03B8-43B7-440E-A63B-6B0A8AF023EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2340,6 +2331,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFB6650-4FEB-4B66-AAA0-20B6289510B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{7005d458-45be-48ae-8140-d43da96dd17b}" enabled="0" method="" siteId="{7005d458-45be-48ae-8140-d43da96dd17b}" removed="1"/>

--- a/files/FDPR shifts - sandbox.xlsx
+++ b/files/FDPR shifts - sandbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebray\Downloads\ADMTools-main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A3015F-C424-40DB-82EF-31BBBDA792EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882D6CE5-7430-462F-8A66-AEEBB236D983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="2616" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
@@ -310,19 +310,19 @@
     <t>PR results file</t>
   </si>
   <si>
-    <t>PR1-830-20230512_161121.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR3-830-20230512_162636.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR4-830-20230512_164016.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR5-830-20230512_165522.A1.sol.h5</t>
-  </si>
-  <si>
-    <t>PR2-830-20230512_170939.A1.sol.h5</t>
+    <t>PR1-830-20230530_205446.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR3-830-20230530_210652.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR4-830-20230530_211935.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR5-830-20230530_213144.A1.sol.h5</t>
+  </si>
+  <si>
+    <t>PR2-830-20230530_214452.A1.sol.h5</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +356,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -388,11 +395,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -409,6 +425,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,330 +1774,294 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45058.67454861111</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45058.841215277767</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4">
-        <v>-61</v>
-      </c>
-      <c r="E2" s="4">
-        <v>-62</v>
-      </c>
-      <c r="F2" s="4">
-        <v>228.9</v>
-      </c>
-      <c r="G2" s="4">
-        <v>321.3</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>27.1</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>271</v>
-      </c>
-      <c r="L2" s="6">
-        <v>-4.4999999999999997E-3</v>
-      </c>
-      <c r="M2" s="6">
-        <v>-4.9981</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.6421</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.2848</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0.2853</v>
-      </c>
-      <c r="R2" s="6">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="S2" s="6">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="D2" s="10">
+        <v>-87</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-89</v>
+      </c>
+      <c r="F2" s="10">
+        <v>261.2</v>
+      </c>
+      <c r="G2" s="10">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="H2" s="10">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="I2" s="10">
+        <v>-5.2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>-51</v>
+      </c>
+      <c r="K2" s="10">
+        <v>-52</v>
+      </c>
+      <c r="L2" s="10">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="M2" s="10">
+        <v>-4.9976000000000003</v>
+      </c>
+      <c r="N2" s="10">
+        <v>2.0825999999999998</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="P2" s="10">
+        <v>-0.49580000000000002</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>-0.49440000000000001</v>
+      </c>
+      <c r="R2" s="10">
+        <v>-7.6499999999999999E-2</v>
+      </c>
+      <c r="S2" s="10">
+        <v>-6.1000000000000004E-3</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45058.68513888889</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45058.851805555547</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4">
-        <v>-32</v>
-      </c>
-      <c r="E3" s="4">
-        <v>-32</v>
-      </c>
-      <c r="F3" s="4">
-        <v>214.2</v>
-      </c>
-      <c r="G3" s="4">
-        <v>318.89999999999998</v>
-      </c>
-      <c r="H3" s="4">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="I3" s="4">
-        <v>41.8</v>
+      <c r="D3">
+        <v>-250</v>
+      </c>
+      <c r="E3">
+        <v>-258</v>
+      </c>
+      <c r="F3">
+        <v>260</v>
+      </c>
+      <c r="G3">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="H3">
+        <v>-14.9</v>
+      </c>
+      <c r="I3">
+        <v>-4</v>
       </c>
       <c r="J3">
-        <v>-11</v>
+        <v>-149</v>
       </c>
       <c r="K3">
-        <v>418</v>
-      </c>
-      <c r="L3" s="6">
-        <v>-2.7000000000000001E-3</v>
-      </c>
-      <c r="M3" s="6">
-        <v>-4.9980000000000002</v>
-      </c>
-      <c r="N3" s="6">
-        <v>111.17019999999999</v>
-      </c>
-      <c r="O3" s="6">
-        <v>23.1252</v>
-      </c>
-      <c r="P3" s="6">
-        <v>-46.240900000000003</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>-46.240699999999997</v>
-      </c>
-      <c r="R3" s="6">
-        <v>-4.8860000000000001</v>
-      </c>
-      <c r="S3" s="6">
-        <v>-10.5802</v>
+        <v>-40</v>
+      </c>
+      <c r="L3">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="M3">
+        <v>-4.9961000000000002</v>
+      </c>
+      <c r="N3">
+        <v>112.36799999999999</v>
+      </c>
+      <c r="O3">
+        <v>23.3475</v>
+      </c>
+      <c r="P3">
+        <v>-46.978900000000003</v>
+      </c>
+      <c r="Q3">
+        <v>-46.978900000000003</v>
+      </c>
+      <c r="R3">
+        <v>-4.9759000000000002</v>
+      </c>
+      <c r="S3">
+        <v>-10.6388</v>
       </c>
       <c r="T3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45058.69462962963</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45058.861296296287</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4">
-        <v>208.8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>322</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>47.2</v>
+      <c r="D4">
+        <v>-13</v>
+      </c>
+      <c r="E4">
+        <v>-14</v>
+      </c>
+      <c r="F4">
+        <v>264.89999999999998</v>
+      </c>
+      <c r="G4">
+        <v>312.89999999999998</v>
+      </c>
+      <c r="H4">
+        <v>-7.1</v>
+      </c>
+      <c r="I4">
+        <v>-8.9</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>-71</v>
       </c>
       <c r="K4">
-        <v>472</v>
-      </c>
-      <c r="L4" s="6">
-        <v>-8.0000000000000004E-4</v>
-      </c>
-      <c r="M4" s="6">
-        <v>-5.0027999999999997</v>
-      </c>
-      <c r="N4" s="6">
-        <v>102.96</v>
-      </c>
-      <c r="O4" s="6">
-        <v>31.784700000000001</v>
-      </c>
-      <c r="P4" s="6">
-        <v>58.843400000000003</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>58.843899999999998</v>
-      </c>
-      <c r="R4" s="6">
-        <v>5.2803000000000004</v>
-      </c>
-      <c r="S4" s="6">
-        <v>-10.3049</v>
+        <v>-89</v>
+      </c>
+      <c r="L4">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="M4">
+        <v>-5.0006000000000004</v>
+      </c>
+      <c r="N4">
+        <v>104.0719</v>
+      </c>
+      <c r="O4">
+        <v>32.0702</v>
+      </c>
+      <c r="P4">
+        <v>58.090800000000002</v>
+      </c>
+      <c r="Q4">
+        <v>58.091700000000003</v>
+      </c>
+      <c r="R4">
+        <v>5.194</v>
+      </c>
+      <c r="S4">
+        <v>-10.359</v>
       </c>
       <c r="T4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45058.70511574074</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45058.871782407397</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4">
-        <v>-174</v>
-      </c>
-      <c r="E5" s="4">
-        <v>-203</v>
-      </c>
-      <c r="F5" s="4">
-        <v>238.1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>320.89999999999998</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="4">
-        <v>17.899999999999999</v>
+      <c r="D5">
+        <v>-19</v>
+      </c>
+      <c r="E5">
+        <v>-21</v>
+      </c>
+      <c r="F5">
+        <v>268.3</v>
+      </c>
+      <c r="G5">
+        <v>311.89999999999998</v>
+      </c>
+      <c r="H5">
+        <v>-8.1</v>
+      </c>
+      <c r="I5">
+        <v>-12.3</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>-81</v>
       </c>
       <c r="K5">
-        <v>179</v>
-      </c>
-      <c r="L5" s="6">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M5" s="6">
-        <v>-4.9995000000000003</v>
-      </c>
-      <c r="N5" s="6">
-        <v>-101.4177</v>
-      </c>
-      <c r="O5" s="6">
-        <v>31.8065</v>
-      </c>
-      <c r="P5" s="6">
-        <v>58.424900000000001</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>58.426499999999997</v>
-      </c>
-      <c r="R5" s="6">
-        <v>5.2705000000000002</v>
-      </c>
-      <c r="S5" s="6">
-        <v>10.416499999999999</v>
+        <v>-123</v>
+      </c>
+      <c r="L5">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M5">
+        <v>-5.0041000000000002</v>
+      </c>
+      <c r="N5">
+        <v>-100.3027</v>
+      </c>
+      <c r="O5">
+        <v>31.830400000000001</v>
+      </c>
+      <c r="P5">
+        <v>57.548299999999998</v>
+      </c>
+      <c r="Q5">
+        <v>57.549199999999999</v>
+      </c>
+      <c r="R5">
+        <v>5.1717000000000004</v>
+      </c>
+      <c r="S5">
+        <v>10.362500000000001</v>
       </c>
       <c r="T5" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45058.71503472222</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45058.881701388891</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4">
-        <v>-103</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-106</v>
-      </c>
-      <c r="F6" s="4">
-        <v>226</v>
-      </c>
-      <c r="G6" s="4">
-        <v>322.5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="I6" s="4">
-        <v>30</v>
+      <c r="D6">
+        <v>-137</v>
+      </c>
+      <c r="E6">
+        <v>-141</v>
+      </c>
+      <c r="F6">
+        <v>252.1</v>
+      </c>
+      <c r="G6">
+        <v>307.8</v>
+      </c>
+      <c r="H6">
+        <v>-12.2</v>
+      </c>
+      <c r="I6">
+        <v>3.9</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>-122</v>
       </c>
       <c r="K6">
-        <v>300</v>
-      </c>
-      <c r="L6" s="6">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="M6" s="6">
-        <v>-5.0018000000000002</v>
-      </c>
-      <c r="N6" s="6">
-        <v>-109.49930000000001</v>
-      </c>
-      <c r="O6" s="6">
-        <v>23.340900000000001</v>
-      </c>
-      <c r="P6" s="6">
-        <v>-46.7926</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>-46.793399999999998</v>
-      </c>
-      <c r="R6" s="6">
-        <v>-4.9126000000000003</v>
-      </c>
-      <c r="S6" s="6">
-        <v>10.700799999999999</v>
+        <v>39</v>
+      </c>
+      <c r="L6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M6">
+        <v>-5.0011000000000001</v>
+      </c>
+      <c r="N6">
+        <v>-108.3069</v>
+      </c>
+      <c r="O6">
+        <v>23.286100000000001</v>
+      </c>
+      <c r="P6">
+        <v>-47.639299999999999</v>
+      </c>
+      <c r="Q6">
+        <v>-47.640799999999999</v>
+      </c>
+      <c r="R6">
+        <v>-5.0083000000000002</v>
+      </c>
+      <c r="S6">
+        <v>10.640499999999999</v>
       </c>
       <c r="T6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
